--- a/Support_data/airport_information.xlsx
+++ b/Support_data/airport_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,24 +456,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>ADD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Domodedovo International Airport</t>
+          <t>Addis Ababa Bole International Airport</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55.40879822</v>
+        <v>8.977890015</v>
       </c>
       <c r="F2" t="n">
-        <v>37.90629959</v>
+        <v>38.79930115</v>
       </c>
     </row>
     <row r="3">
@@ -482,24 +482,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IKT</t>
+          <t>AUH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Irkutsk Airport</t>
+          <t>Abu Dhabi International Airport</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>52.26800156</v>
+        <v>24.43300056</v>
       </c>
       <c r="F3" t="n">
-        <v>104.3889999</v>
+        <v>54.65110016</v>
       </c>
     </row>
     <row r="4">
@@ -508,24 +508,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KZN</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kazan International Airport</t>
+          <t>Bahrain International Airport</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.60620117</v>
+        <v>26.27079964</v>
       </c>
       <c r="F4" t="n">
-        <v>49.27870178</v>
+        <v>50.63359833</v>
       </c>
     </row>
     <row r="5">
@@ -534,24 +534,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>CMN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pulkovo Airport</t>
+          <t>Mohammed V International Airport</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>59.8003006</v>
+        <v>33.36750031</v>
       </c>
       <c r="F5" t="n">
-        <v>30.26250076</v>
+        <v>-7.589970112</v>
       </c>
     </row>
     <row r="6">
@@ -560,12 +560,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OVB</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tolmachevo Airport</t>
+          <t>Domodedovo International Airport</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>55.01259995</v>
+        <v>55.40879822</v>
       </c>
       <c r="F6" t="n">
-        <v>82.65070342999999</v>
+        <v>37.90629959</v>
       </c>
     </row>
     <row r="7">
@@ -586,24 +586,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SVO</t>
+          <t>DWC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sheremetyevo International Airport</t>
+          <t>Al Maktoum International Airport</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>55.972599</v>
+        <v>24.896356</v>
       </c>
       <c r="F7" t="n">
-        <v>37.4146</v>
+        <v>55.161389</v>
       </c>
     </row>
     <row r="8">
@@ -612,24 +612,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VKO</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vnukovo International Airport</t>
+          <t>Dubai International Airport</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.59149933</v>
+        <v>25.25279999</v>
       </c>
       <c r="F8" t="n">
-        <v>37.26150131</v>
+        <v>55.36439896</v>
       </c>
     </row>
     <row r="9">
@@ -638,23 +638,387 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>HRG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hurghada International Airport</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>27.17830086</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33.79940033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IKT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Irkutsk Airport</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>52.26800156</v>
+      </c>
+      <c r="F10" t="n">
+        <v>104.3889999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IKU</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Issyk-Kul International Airport</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>42.58792</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76.71304600000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KWI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kuwait International Airport</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>29.22660065</v>
+      </c>
+      <c r="F12" t="n">
+        <v>47.96889877</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KZN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kazan International Airport</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>55.60620117</v>
+      </c>
+      <c r="F13" t="n">
+        <v>49.27870178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pulkovo Airport</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>59.8003006</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30.26250076</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Osh Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>40.60900116</v>
+      </c>
+      <c r="F15" t="n">
+        <v>72.79329681</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OVB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tolmachevo Airport</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>55.01259995</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.65070342999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SHJ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sharjah International Airport</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>25.32859993</v>
+      </c>
+      <c r="F17" t="n">
+        <v>55.51720047</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SSH</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sharm El Sheikh International Airport</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>27.97730064</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34.39500046</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sheremetyevo International Airport</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55.972599</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.4146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TJU</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kulob Airport</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>37.98809814</v>
+      </c>
+      <c r="F20" t="n">
+        <v>69.80500031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UTP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>U-Tapao International Airport</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12.67990017</v>
+      </c>
+      <c r="F21" t="n">
+        <v>101.0049973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VKO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vnukovo International Airport</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>55.59149933</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37.26150131</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>VVO</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Vladivostok International Airport</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E23" t="n">
         <v>43.39899826</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F23" t="n">
         <v>132.147995</v>
       </c>
     </row>
